--- a/Coursework/Вар2_приложение1.xlsx
+++ b/Coursework/Вар2_приложение1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semyo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semyo\Documents\GitHub\Coursework\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348AD153-08AF-4E19-A288-BB2A8B3202A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA62925-FDE5-470A-9F1C-D7E65B692569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
